--- a/e2e_test_output_basic_1week_integration/simulation_output/summary/full_truck_usage_report.xlsx
+++ b/e2e_test_output_basic_1week_integration/simulation_output/summary/full_truck_usage_report.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -579,144 +579,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>45296</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>LARGE</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>45296</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>DC_002</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>MEDIUM</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>45297</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>LARGE</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>45297</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>DC_002</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>MEDIUM</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>45298</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>LARGE</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>45298</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>DC_002</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>MEDIUM</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/e2e_test_output_basic_1week_integration/simulation_output/summary/full_truck_usage_report.xlsx
+++ b/e2e_test_output_basic_1week_integration/simulation_output/summary/full_truck_usage_report.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -579,6 +579,29 @@
         <v>1</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>LARGE</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/e2e_test_output_basic_1week_integration/simulation_output/summary/full_truck_usage_report.xlsx
+++ b/e2e_test_output_basic_1week_integration/simulation_output/summary/full_truck_usage_report.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -579,29 +579,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>45297</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>LARGE</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/e2e_test_output_basic_1week_integration/simulation_output/summary/full_truck_usage_report.xlsx
+++ b/e2e_test_output_basic_1week_integration/simulation_output/summary/full_truck_usage_report.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -576,7 +576,191 @@
         </is>
       </c>
       <c r="E6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>LARGE</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>MEDIUM</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>LARGE</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>MEDIUM</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>LARGE</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>MEDIUM</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>LARGE</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>MEDIUM</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/e2e_test_output_basic_1week_integration/simulation_output/summary/full_truck_usage_report.xlsx
+++ b/e2e_test_output_basic_1week_integration/simulation_output/summary/full_truck_usage_report.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -576,7 +576,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -590,21 +590,21 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LARGE</t>
+          <t>MEDIUM</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -613,12 +613,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>MEDIUM</t>
+          <t>LARGE</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -636,21 +636,21 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LARGE</t>
+          <t>MEDIUM</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -659,12 +659,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MEDIUM</t>
+          <t>LARGE</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -682,21 +682,21 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LARGE</t>
+          <t>MEDIUM</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45297</v>
+        <v>45298</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -705,16 +705,16 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>MEDIUM</t>
+          <t>LARGE</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -728,38 +728,15 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LARGE</t>
+          <t>MEDIUM</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>45298</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>DC_002</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>MEDIUM</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
         <v>2</v>
       </c>
     </row>

--- a/e2e_test_output_basic_1week_integration/simulation_output/summary/full_truck_usage_report.xlsx
+++ b/e2e_test_output_basic_1week_integration/simulation_output/summary/full_truck_usage_report.xlsx
@@ -558,7 +558,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45294</v>
+        <v>45295</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -599,7 +599,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">

--- a/e2e_test_output_basic_1week_integration/simulation_output/summary/full_truck_usage_report.xlsx
+++ b/e2e_test_output_basic_1week_integration/simulation_output/summary/full_truck_usage_report.xlsx
@@ -558,7 +558,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -714,7 +714,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
